--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P34_trail1 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P34_trail1 Features.xlsx
@@ -3311,7 +3311,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.230321719138224</v>
+        <v>1.24456865789336</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.065426858418781</v>
@@ -3400,7 +3400,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.25301772391303</v>
+        <v>1.265361704332336</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.115636342946817</v>
@@ -3489,7 +3489,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.299828375670056</v>
+        <v>1.311722133856511</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.957872831895847</v>
@@ -3578,7 +3578,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.283890067466853</v>
+        <v>1.296101771041458</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.099686108472084</v>
@@ -3667,7 +3667,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.316248052769497</v>
+        <v>1.328830600883878</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.014497473464768</v>
@@ -3756,7 +3756,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.359483786915788</v>
+        <v>1.373871883170193</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.913914455927296</v>
@@ -3845,7 +3845,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.359692942608792</v>
+        <v>1.375031574896065</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1.940667546975634</v>
@@ -3934,7 +3934,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.326403820741653</v>
+        <v>1.342829925216357</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1.963172366851251</v>
@@ -4023,7 +4023,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.320588933334112</v>
+        <v>1.336748246022085</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1.996920905109532</v>
@@ -4112,7 +4112,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.355704113913915</v>
+        <v>1.36646514161485</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.005096782157188</v>
@@ -4201,7 +4201,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.357653226407815</v>
+        <v>1.36922217695035</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.02763521793263</v>
@@ -4290,7 +4290,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.358074528304594</v>
+        <v>1.365087163026455</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.026477602401801</v>
@@ -4379,7 +4379,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.356270911532408</v>
+        <v>1.362856654602182</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.0279521158334</v>
@@ -4468,7 +4468,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.352626140951479</v>
+        <v>1.359408064759352</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1.842546517633823</v>
@@ -4557,7 +4557,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.321950455926461</v>
+        <v>1.325366074205198</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.053160200663886</v>
@@ -4646,7 +4646,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.324677711026321</v>
+        <v>1.328972708577856</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.054307459581617</v>
@@ -4735,7 +4735,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.332093909653212</v>
+        <v>1.333919613351967</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.007128438783939</v>
@@ -4824,7 +4824,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.333549392108365</v>
+        <v>1.334413063410376</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.055212609285424</v>
@@ -4913,7 +4913,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.366141624536638</v>
+        <v>1.364474220023587</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.112691766997019</v>
@@ -5002,7 +5002,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.317855284621827</v>
+        <v>1.320080617605226</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.060091039896987</v>
@@ -5091,7 +5091,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.309856035142024</v>
+        <v>1.310180704929493</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.035544956963356</v>
@@ -5180,7 +5180,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.310746550661257</v>
+        <v>1.310083491368142</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.036092944762395</v>
@@ -5269,7 +5269,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.320609032283638</v>
+        <v>1.318157156866073</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>1.978802092348616</v>
@@ -5358,7 +5358,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.298589952617298</v>
+        <v>1.296160218724874</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.096416072489486</v>
@@ -5447,7 +5447,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.322617546077286</v>
+        <v>1.322067804610399</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.128025860438565</v>
@@ -5536,7 +5536,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.323587388762036</v>
+        <v>1.323472168515246</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.063527155872262</v>
@@ -5625,7 +5625,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.32363803074331</v>
+        <v>1.325179539503281</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.050082699444154</v>
@@ -5714,7 +5714,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.327576092553977</v>
+        <v>1.32728868487387</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.152893766060217</v>
@@ -5803,7 +5803,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.36734239258642</v>
+        <v>1.362939402472841</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.118118532179228</v>
@@ -5892,7 +5892,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.384526213292242</v>
+        <v>1.378045214915206</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.015382588613441</v>
@@ -5981,7 +5981,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.349780021331421</v>
+        <v>1.348287093318437</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.009114389067549</v>
@@ -6070,7 +6070,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.344457442212599</v>
+        <v>1.343208471208835</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.005264012176016</v>
@@ -6159,7 +6159,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.33882811490432</v>
+        <v>1.340210272091688</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>1.99877303166551</v>
@@ -6248,7 +6248,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.348956244467216</v>
+        <v>1.35196503913958</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.001159835370427</v>
@@ -6337,7 +6337,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.336108759501562</v>
+        <v>1.339120518393955</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.069549466081688</v>
@@ -6426,7 +6426,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.344136992171713</v>
+        <v>1.348887697436554</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.042143348674237</v>
@@ -6515,7 +6515,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.344316765464067</v>
+        <v>1.348396014636937</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>1.999646365027511</v>
@@ -6604,7 +6604,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.373947054437093</v>
+        <v>1.376685404227019</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>1.993454260736529</v>
@@ -6693,7 +6693,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.415495395674186</v>
+        <v>1.409770604670655</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>1.90948785551127</v>
@@ -6782,7 +6782,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.386685588361592</v>
+        <v>1.378603503773622</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>1.945948692594628</v>
@@ -6871,7 +6871,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.374430039233552</v>
+        <v>1.370393395791635</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>1.948159614402876</v>
@@ -6960,7 +6960,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.367236423880066</v>
+        <v>1.360420989113915</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>1.974639021754039</v>
@@ -7246,7 +7246,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.677459747214789</v>
+        <v>1.696579178131478</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.997721730376686</v>
@@ -7335,7 +7335,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.679352860908995</v>
+        <v>1.695474017533674</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.953848757933453</v>
@@ -7424,7 +7424,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.669895136202669</v>
+        <v>1.687471957706775</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.775982165355781</v>
@@ -7513,7 +7513,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.652981698739089</v>
+        <v>1.666922473337608</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.669705025734739</v>
@@ -7602,7 +7602,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.650557993894689</v>
+        <v>1.662184793948859</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.780431593037684</v>
@@ -7691,7 +7691,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.671666068006786</v>
+        <v>1.681955817791537</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.357242023354627</v>
@@ -7780,7 +7780,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.660092222449725</v>
+        <v>1.666784504877608</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.351710105375531</v>
@@ -7869,7 +7869,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.662307409463339</v>
+        <v>1.664760638597089</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.784595065125592</v>
@@ -7958,7 +7958,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.667846670061222</v>
+        <v>1.673794027319679</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.316466466619661</v>
@@ -8047,7 +8047,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.676675596555747</v>
+        <v>1.681269832453585</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.430571892748433</v>
@@ -8136,7 +8136,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.672645249934917</v>
+        <v>1.669198276088468</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.613848151860277</v>
@@ -8225,7 +8225,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.67158938974926</v>
+        <v>1.660904155703412</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.406856504451925</v>
@@ -8314,7 +8314,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.679365548850553</v>
+        <v>1.665856495447096</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.201051965083083</v>
@@ -8403,7 +8403,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.666782568091796</v>
+        <v>1.64551145803422</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.020455296578108</v>
@@ -8492,7 +8492,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.624118394886184</v>
+        <v>1.6038378623619</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.617318536417232</v>
@@ -8581,7 +8581,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.609705509081799</v>
+        <v>1.595230086662034</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.53040099784067</v>
@@ -8670,7 +8670,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.609279919929152</v>
+        <v>1.596274232175982</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.54905434596899</v>
@@ -8759,7 +8759,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.603368690656237</v>
+        <v>1.584656883869219</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.618020710132011</v>
@@ -8848,7 +8848,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.612926587137619</v>
+        <v>1.599121336082864</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.5638636473796</v>
@@ -8937,7 +8937,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.608689098210016</v>
+        <v>1.59465568798086</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.610637818615558</v>
@@ -9026,7 +9026,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.603692838081724</v>
+        <v>1.586545129024549</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.609651927430296</v>
@@ -9115,7 +9115,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.607428172759367</v>
+        <v>1.58803267167316</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.681271501245005</v>
@@ -9204,7 +9204,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.600272305830575</v>
+        <v>1.580017578995926</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.645984970038092</v>
@@ -9293,7 +9293,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.587475398210172</v>
+        <v>1.565507980451142</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.685697193568127</v>
@@ -9382,7 +9382,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.592908243774918</v>
+        <v>1.571210766142835</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.623367915572663</v>
@@ -9471,7 +9471,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.598009509955736</v>
+        <v>1.576113143354557</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.600234485288176</v>
@@ -9560,7 +9560,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.608216037675479</v>
+        <v>1.587671254686158</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.489522850266215</v>
@@ -9649,7 +9649,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.611627705251847</v>
+        <v>1.590703400599587</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.545938273089437</v>
@@ -9738,7 +9738,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.618764848808711</v>
+        <v>1.599288019964173</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.49779042708522</v>
@@ -9827,7 +9827,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.64031516252981</v>
+        <v>1.617910060142409</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.61793931359324</v>
@@ -9916,7 +9916,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.63315259420799</v>
+        <v>1.611136634566444</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.877247382609911</v>
@@ -10005,7 +10005,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.636640066916054</v>
+        <v>1.610494631437905</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.878782635040011</v>
@@ -10094,7 +10094,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.649064083810775</v>
+        <v>1.62401934654274</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.824212697366224</v>
@@ -10183,7 +10183,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.645365354773691</v>
+        <v>1.621971002227313</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.577850172410802</v>
@@ -10272,7 +10272,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.645901882507385</v>
+        <v>1.624186166804313</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.621189207811771</v>
@@ -10361,7 +10361,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.649955520518294</v>
+        <v>1.629312164464052</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.844590122427836</v>
@@ -10450,7 +10450,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.649010604402853</v>
+        <v>1.628105423708141</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.74114976262187</v>
@@ -10539,7 +10539,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.656394261116069</v>
+        <v>1.639940367071284</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.56349120808723</v>
@@ -10628,7 +10628,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.656576258180566</v>
+        <v>1.637016932859566</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.670984513046305</v>
@@ -10717,7 +10717,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.647635877486783</v>
+        <v>1.633884749306537</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.690623394339689</v>
@@ -10806,7 +10806,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.639900015268677</v>
+        <v>1.632774823581283</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.696752745240077</v>
@@ -10895,7 +10895,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.626192877324055</v>
+        <v>1.614565675061059</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.831163890856075</v>
@@ -11181,7 +11181,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.555306482052329</v>
+        <v>1.536633360420961</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.852983596574667</v>
@@ -11270,7 +11270,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.561799737041141</v>
+        <v>1.545104308460427</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.947965978523662</v>
@@ -11359,7 +11359,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.587059876831692</v>
+        <v>1.572089907604892</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.903318314920589</v>
@@ -11448,7 +11448,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.571543792525904</v>
+        <v>1.560205251465246</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.096039549902937</v>
@@ -11537,7 +11537,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.581086536126534</v>
+        <v>1.567574229318054</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.018249372990286</v>
@@ -11626,7 +11626,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.605474446644191</v>
+        <v>1.586267289159925</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.947405687564183</v>
@@ -11715,7 +11715,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.605241483499017</v>
+        <v>1.582154458549104</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.149771521054324</v>
@@ -11804,7 +11804,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.59520830385761</v>
+        <v>1.580371843243305</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.942617691417196</v>
@@ -11893,7 +11893,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.586975928694921</v>
+        <v>1.57402802206276</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.230553478951247</v>
@@ -11982,7 +11982,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.605004520296891</v>
+        <v>1.582285060551117</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.31731816838484</v>
@@ -12071,7 +12071,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.606083400437451</v>
+        <v>1.58174594494148</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.461266380355242</v>
@@ -12160,7 +12160,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.602101251455156</v>
+        <v>1.581243848760446</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.360340545173235</v>
@@ -12249,7 +12249,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.610802746036825</v>
+        <v>1.587884133443098</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.231818323146948</v>
@@ -12338,7 +12338,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.612343331613328</v>
+        <v>1.586655720416505</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.719182873022776</v>
@@ -12427,7 +12427,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.605867843817004</v>
+        <v>1.58216371515462</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.235671439530716</v>
@@ -12516,7 +12516,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.592787108291201</v>
+        <v>1.567916511145181</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.978488172106609</v>
@@ -12605,7 +12605,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.590667873133632</v>
+        <v>1.566684436038181</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.212991092550356</v>
@@ -12694,7 +12694,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.593682033222731</v>
+        <v>1.564899794028893</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.322175770577986</v>
@@ -12783,7 +12783,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.604815862448181</v>
+        <v>1.571870780415706</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.228214070527767</v>
@@ -12872,7 +12872,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.585946521016514</v>
+        <v>1.558880215648052</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.201422443331155</v>
@@ -12961,7 +12961,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.58038387312077</v>
+        <v>1.555748393224327</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.909513587346537</v>
@@ -13050,7 +13050,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.583023973355966</v>
+        <v>1.556045409494002</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.253475404000482</v>
@@ -13139,7 +13139,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.604722122808471</v>
+        <v>1.575526539252326</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.382573416271529</v>
@@ -13228,7 +13228,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.592566367817173</v>
+        <v>1.565968226553474</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.11275165773492</v>
@@ -13317,7 +13317,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.598392489791959</v>
+        <v>1.572559348791222</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.133161315629747</v>
@@ -13406,7 +13406,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.5978054218222</v>
+        <v>1.569963159011579</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.30687117008908</v>
@@ -13495,7 +13495,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.602897996923221</v>
+        <v>1.573075772191185</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.113604359331818</v>
@@ -13584,7 +13584,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.596347153843223</v>
+        <v>1.567845186866961</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.914675903391283</v>
@@ -13673,7 +13673,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.601787791427036</v>
+        <v>1.566247267880213</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.337102263293469</v>
@@ -13762,7 +13762,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.607436389974652</v>
+        <v>1.570797690572451</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.058923937753602</v>
@@ -13851,7 +13851,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.601621291569026</v>
+        <v>1.567638175843253</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.162466562587119</v>
@@ -13940,7 +13940,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.602147433116725</v>
+        <v>1.567910949880103</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.251258820112586</v>
@@ -14029,7 +14029,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.598879066424116</v>
+        <v>1.566605376318694</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.040935083555659</v>
@@ -14118,7 +14118,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.593152589789063</v>
+        <v>1.561061376609486</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.810349862258605</v>
@@ -14207,7 +14207,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.587963096037382</v>
+        <v>1.552723599311628</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.693916730405232</v>
@@ -14296,7 +14296,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.588167054018665</v>
+        <v>1.552887995452762</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.045475763923549</v>
@@ -14385,7 +14385,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.589724048521201</v>
+        <v>1.55260997599013</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.956521520126492</v>
@@ -14474,7 +14474,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.581471872935548</v>
+        <v>1.542067993471384</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.877838396694625</v>
@@ -14563,7 +14563,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.587827634786356</v>
+        <v>1.543747202773961</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.824370613242136</v>
@@ -14652,7 +14652,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.579789690857488</v>
+        <v>1.539905639700856</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.006784784836195</v>
@@ -14741,7 +14741,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.58485402975742</v>
+        <v>1.545885527776437</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.195934999861471</v>
@@ -14830,7 +14830,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.575440132456206</v>
+        <v>1.53263416949798</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.148411067296834</v>
@@ -15116,7 +15116,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.66123527257927</v>
+        <v>1.625751487862668</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.81765510094766</v>
@@ -15205,7 +15205,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.671909950114086</v>
+        <v>1.6352924447568</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.730962782754142</v>
@@ -15294,7 +15294,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.677049607963554</v>
+        <v>1.641247186057112</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.137051541854846</v>
@@ -15383,7 +15383,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.670615380720375</v>
+        <v>1.632604788527716</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.659423571864407</v>
@@ -15472,7 +15472,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.665866299500017</v>
+        <v>1.629737794475384</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.547141446386278</v>
@@ -15561,7 +15561,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.663607778420322</v>
+        <v>1.62805895136165</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.607021412447347</v>
@@ -15650,7 +15650,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.669475631562191</v>
+        <v>1.629564503626892</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.601271488069861</v>
@@ -15739,7 +15739,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.663995523223131</v>
+        <v>1.628534341389313</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.375048558957014</v>
@@ -15828,7 +15828,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.665007316247466</v>
+        <v>1.626545463626235</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.733946169020961</v>
@@ -15917,7 +15917,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.67559686948851</v>
+        <v>1.629261885145539</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.269861796707721</v>
@@ -16006,7 +16006,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.683296921309006</v>
+        <v>1.636509570544643</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.522776271939538</v>
@@ -16095,7 +16095,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.673803630326893</v>
+        <v>1.622597269434721</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.880406384170174</v>
@@ -16184,7 +16184,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.681112173968484</v>
+        <v>1.633555997419473</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.757047256684882</v>
@@ -16273,7 +16273,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.686724255411069</v>
+        <v>1.634223242725104</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.342055173727044</v>
@@ -16362,7 +16362,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.679879490574401</v>
+        <v>1.631618350293464</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.495990302985001</v>
@@ -16451,7 +16451,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.669430376239306</v>
+        <v>1.621627945610279</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.430862269049642</v>
@@ -16540,7 +16540,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.662330034324952</v>
+        <v>1.616924818935565</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.789895284785574</v>
@@ -16629,7 +16629,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.654991864468576</v>
+        <v>1.610944947573433</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.550988648164983</v>
@@ -16718,7 +16718,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.655548938797462</v>
+        <v>1.6094536193113</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.663478180917233</v>
@@ -16807,7 +16807,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.651520990736589</v>
+        <v>1.610089638169113</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.71728332725954</v>
@@ -16896,7 +16896,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.650428039864643</v>
+        <v>1.604700139265812</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.147346385166252</v>
@@ -16985,7 +16985,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.654364418414525</v>
+        <v>1.602852067365245</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.670303257361649</v>
@@ -17074,7 +17074,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.655757269473069</v>
+        <v>1.600826537836094</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.507736322187721</v>
@@ -17163,7 +17163,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.65368874120908</v>
+        <v>1.597971775055938</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.403350986600099</v>
@@ -17252,7 +17252,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.656002466737841</v>
+        <v>1.604920944620665</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.636922587437116</v>
@@ -17341,7 +17341,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.645564800695373</v>
+        <v>1.593511348344887</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.741976538156405</v>
@@ -17430,7 +17430,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.660631312400488</v>
+        <v>1.61654747120749</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.094558294811995</v>
@@ -17519,7 +17519,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.65392052773246</v>
+        <v>1.608556504968296</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.647416563444201</v>
@@ -17608,7 +17608,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.642140690711815</v>
+        <v>1.596272046476793</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.641228556382692</v>
@@ -17697,7 +17697,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.658663225614825</v>
+        <v>1.605250299265449</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.634090470919712</v>
@@ -17786,7 +17786,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.656558538832365</v>
+        <v>1.610177266902634</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.132551266169803</v>
@@ -17875,7 +17875,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.662624979225176</v>
+        <v>1.612836548326536</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.482277314184841</v>
@@ -17964,7 +17964,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.664789864974195</v>
+        <v>1.618708284709003</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.230263834050789</v>
@@ -18053,7 +18053,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.661136212783778</v>
+        <v>1.614241638729137</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.13797527187609</v>
@@ -18142,7 +18142,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.660124596656237</v>
+        <v>1.609623772048307</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.321998698115222</v>
@@ -18231,7 +18231,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.659585291746335</v>
+        <v>1.613583672655076</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.464095126256067</v>
@@ -18320,7 +18320,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.64913123739579</v>
+        <v>1.601666450071522</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.398167013343256</v>
@@ -18409,7 +18409,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.646291305087392</v>
+        <v>1.600982269349424</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.314239929118842</v>
@@ -18498,7 +18498,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.65320416220129</v>
+        <v>1.607378582147787</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.309944406321742</v>
@@ -18587,7 +18587,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.642008877297741</v>
+        <v>1.594466522460934</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.17985614630159</v>
@@ -18676,7 +18676,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.642413883291554</v>
+        <v>1.601489920909773</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.566837064005964</v>
@@ -18765,7 +18765,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.632684410683815</v>
+        <v>1.591460230573344</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.418613031767429</v>
@@ -19051,7 +19051,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.622881146245355</v>
+        <v>1.642347763787623</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.057319125953954</v>
@@ -19140,7 +19140,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.623671610230401</v>
+        <v>1.639614089750465</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.764247488482142</v>
@@ -19229,7 +19229,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.626484406519748</v>
+        <v>1.641179431506653</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.698684713279509</v>
@@ -19318,7 +19318,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.628442241150651</v>
+        <v>1.642109896775144</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.581184276071439</v>
@@ -19407,7 +19407,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.630431403488255</v>
+        <v>1.646584270357779</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.946538252059284</v>
@@ -19496,7 +19496,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.656541983141167</v>
+        <v>1.665847798086447</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.211443032310257</v>
@@ -19585,7 +19585,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.63860113588661</v>
+        <v>1.651925831015291</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.232485954167545</v>
@@ -19674,7 +19674,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.643123274617482</v>
+        <v>1.658049547960557</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.970983094797083</v>
@@ -19763,7 +19763,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.639960072844129</v>
+        <v>1.65463338584232</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.316870081065453</v>
@@ -19852,7 +19852,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.641379040723757</v>
+        <v>1.648971959351724</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.022737657545687</v>
@@ -19941,7 +19941,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.634525008148749</v>
+        <v>1.642744232478649</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.684865453021316</v>
@@ -20030,7 +20030,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.645479891184544</v>
+        <v>1.642888480476486</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.708010102085852</v>
@@ -20119,7 +20119,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.661107732277066</v>
+        <v>1.652286847301151</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.604482964707719</v>
@@ -20208,7 +20208,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.645710328059948</v>
+        <v>1.631498007585841</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.60665385426917</v>
@@ -20297,7 +20297,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.62045921729732</v>
+        <v>1.609226175326453</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.609747051518359</v>
@@ -20386,7 +20386,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.612885331119819</v>
+        <v>1.602215952267569</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.569415663473034</v>
@@ -20475,7 +20475,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.612984508634091</v>
+        <v>1.60620474212597</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.726862189740697</v>
@@ -20564,7 +20564,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.601526171681819</v>
+        <v>1.593347585850234</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.518945409231801</v>
@@ -20653,7 +20653,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.606456133607702</v>
+        <v>1.601390027658673</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.756174288298533</v>
@@ -20742,7 +20742,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.598660428940702</v>
+        <v>1.594436154074524</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.792684595864008</v>
@@ -20831,7 +20831,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.607394870953955</v>
+        <v>1.605485024692593</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.805114711833453</v>
@@ -20920,7 +20920,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.612047367095955</v>
+        <v>1.606334928670953</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.769600907426264</v>
@@ -21009,7 +21009,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.597733308230545</v>
+        <v>1.593011632000168</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.751355242520875</v>
@@ -21098,7 +21098,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.591910850862738</v>
+        <v>1.588849446070658</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.90111123975427</v>
@@ -21187,7 +21187,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.596834803136182</v>
+        <v>1.597694764391851</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.558433109681402</v>
@@ -21276,7 +21276,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.597850068483541</v>
+        <v>1.595450427283485</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.789710439826253</v>
@@ -21365,7 +21365,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.604735892432915</v>
+        <v>1.603964654669129</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.538214894032049</v>
@@ -21454,7 +21454,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.60518187487574</v>
+        <v>1.606609232213934</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.823354960205041</v>
@@ -21543,7 +21543,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.616605892426266</v>
+        <v>1.617566769238846</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.857268090302477</v>
@@ -21632,7 +21632,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.620822832300014</v>
+        <v>1.612768761101956</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.925475279922273</v>
@@ -21721,7 +21721,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.606290112068398</v>
+        <v>1.597975510244848</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.89123480423672</v>
@@ -21810,7 +21810,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.614083822769827</v>
+        <v>1.602935396697047</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.000642105070637</v>
@@ -21899,7 +21899,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.630722838948284</v>
+        <v>1.61561567729076</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.702634108760488</v>
@@ -21988,7 +21988,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.628436748839201</v>
+        <v>1.61447514318628</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.811886383955802</v>
@@ -22077,7 +22077,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.630988460338393</v>
+        <v>1.616662803094294</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.98856743242447</v>
@@ -22166,7 +22166,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.620018806497346</v>
+        <v>1.59699682600832</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.751120570921142</v>
@@ -22255,7 +22255,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.618353639484238</v>
+        <v>1.590905519447095</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.670081493734001</v>
@@ -22344,7 +22344,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.64009977424455</v>
+        <v>1.605254938971684</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.609281187927083</v>
@@ -22433,7 +22433,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.644903368374281</v>
+        <v>1.608514397274769</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.909168049857688</v>
@@ -22522,7 +22522,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.628489121678733</v>
+        <v>1.593712477140247</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.811812101025789</v>
@@ -22611,7 +22611,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.629570058856326</v>
+        <v>1.598191538965449</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.930931549731921</v>
@@ -22700,7 +22700,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.619960197212309</v>
+        <v>1.592411226625155</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.914489177593768</v>
@@ -22986,7 +22986,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.230661990989069</v>
+        <v>1.250418516499015</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.114641999612671</v>
@@ -23075,7 +23075,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.261098172741134</v>
+        <v>1.28173599710418</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.188980881614337</v>
@@ -23164,7 +23164,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.313489439184997</v>
+        <v>1.336524129231411</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.905344968870133</v>
@@ -23253,7 +23253,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.289968439073735</v>
+        <v>1.310138214583343</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.067755312537142</v>
@@ -23342,7 +23342,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.32306015571994</v>
+        <v>1.344318482505904</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.107614955203329</v>
@@ -23431,7 +23431,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.348805261644523</v>
+        <v>1.370158620050583</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.976678881681008</v>
@@ -23520,7 +23520,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.349384036044132</v>
+        <v>1.367976476065595</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1.97128667354254</v>
@@ -23609,7 +23609,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.313464377778665</v>
+        <v>1.330999124428242</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.026883162002873</v>
@@ -23698,7 +23698,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.309881200569067</v>
+        <v>1.32835748517933</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.060355480871856</v>
@@ -23787,7 +23787,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.344409502174444</v>
+        <v>1.361311292287326</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.059390693986538</v>
@@ -23876,7 +23876,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.339847387044188</v>
+        <v>1.362452074282426</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.026811028189317</v>
@@ -23965,7 +23965,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.342217118873009</v>
+        <v>1.361101979109808</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>1.99556611037204</v>
@@ -24054,7 +24054,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.341344731565872</v>
+        <v>1.358735411487018</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>1.948669323072242</v>
@@ -24143,7 +24143,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.33323576770021</v>
+        <v>1.349830307047544</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1.862069630264198</v>
@@ -24232,7 +24232,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.294989707223508</v>
+        <v>1.309446930919001</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.038969127142227</v>
@@ -24321,7 +24321,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.294752909469846</v>
+        <v>1.309087767651948</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.010074118279391</v>
@@ -24410,7 +24410,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.295017860171257</v>
+        <v>1.308418099278098</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.012829198171908</v>
@@ -24499,7 +24499,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.29294109291061</v>
+        <v>1.303228613091914</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>1.995441205492211</v>
@@ -24588,7 +24588,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.324871390817078</v>
+        <v>1.33442112936504</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.031810115497158</v>
@@ -24677,7 +24677,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.288993308731302</v>
+        <v>1.299024987172496</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.050696893116643</v>
@@ -24766,7 +24766,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.292056724879855</v>
+        <v>1.303665041411497</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>1.947777803967188</v>
@@ -24855,7 +24855,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.292453596091802</v>
+        <v>1.305998953211527</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>1.982589143343274</v>
@@ -24944,7 +24944,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.294574286955021</v>
+        <v>1.306512737176327</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>1.931777078497148</v>
@@ -25033,7 +25033,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.267699812246645</v>
+        <v>1.279102679196126</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.039792565151415</v>
@@ -25122,7 +25122,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.289466985724368</v>
+        <v>1.301607678264832</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.032405424716123</v>
@@ -25211,7 +25211,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.292720361069309</v>
+        <v>1.302086494479953</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.005726439699586</v>
@@ -25300,7 +25300,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.292781957507407</v>
+        <v>1.304632168227839</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.005443784240355</v>
@@ -25389,7 +25389,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.305729072362385</v>
+        <v>1.317300097319128</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.124392055077982</v>
@@ -25478,7 +25478,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.343908184388877</v>
+        <v>1.352865341671112</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.11803527381567</v>
@@ -25567,7 +25567,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.378149620071361</v>
+        <v>1.380132806809451</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.150718215225925</v>
@@ -25656,7 +25656,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.35185125178477</v>
+        <v>1.362002271523814</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.031518971352197</v>
@@ -25745,7 +25745,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.353732410688168</v>
+        <v>1.365405910085</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.064838544920201</v>
@@ -25834,7 +25834,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.353746759723915</v>
+        <v>1.367464113435932</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.044839782296145</v>
@@ -25923,7 +25923,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.369410757043606</v>
+        <v>1.382139302075496</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.006497027891534</v>
@@ -26012,7 +26012,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.350486218529936</v>
+        <v>1.366047613946967</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.024848932440181</v>
@@ -26101,7 +26101,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.349782660081739</v>
+        <v>1.363593209099369</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.098821636128016</v>
@@ -26190,7 +26190,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.347291978869035</v>
+        <v>1.357610923027503</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.107072423064186</v>
@@ -26279,7 +26279,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.387642954644858</v>
+        <v>1.397002714685759</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.034712033871765</v>
@@ -26368,7 +26368,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.446338019608891</v>
+        <v>1.450504446628293</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>1.968665237738076</v>
@@ -26457,7 +26457,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.402740539980883</v>
+        <v>1.403951168054337</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>1.983419987754935</v>
@@ -26546,7 +26546,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.390576713509212</v>
+        <v>1.398345336530718</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>1.988323900128394</v>
@@ -26635,7 +26635,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.383856003864477</v>
+        <v>1.389204684762326</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.019348843345574</v>
